--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2135180.654706073</v>
+        <v>2130876.314896205</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283178</v>
+        <v>416855.105228318</v>
       </c>
     </row>
     <row r="9">
@@ -664,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015063</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>232.2791855053266</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>219.4450108596165</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>127.4695742187186</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>188.713172685576</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>73.14699267381678</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>36.41924730982306</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G5" t="n">
-        <v>263.7138800015061</v>
+        <v>19.98946990210334</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>79.51149230610422</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="6">
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>58.19504493011597</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>48.25292361486935</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>15.07219909888208</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>101.2786202004587</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>98.64876791787661</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>42.4845123235651</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>303.0893355213094</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465045</v>
+        <v>65.76608425465031</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>123.4854171348406</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1217,7 +1217,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>145.6686164001062</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614508</v>
+        <v>92.83909691614505</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115242</v>
+        <v>18.4733505966227</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1296,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>69.04087160771968</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>76.43296711062949</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640954</v>
+        <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
         <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
@@ -1353,13 +1353,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634789</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>132.6315337216688</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1663,16 +1663,16 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174144</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,10 +1821,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>106.997776813539</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881302</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560528</v>
       </c>
     </row>
     <row r="18">
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899574</v>
       </c>
       <c r="V19" t="n">
-        <v>245.4109786013537</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819335</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176109</v>
+        <v>156.5238857907069</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>10.63412424768206</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>102.1557845699813</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>76.94227792015799</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229181</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856539</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012154</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>170.8317276803708</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,16 +3432,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>113.541358075969</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>114.2821160880066</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>137.0965178272088</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187855</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695271</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
-        <v>103.1686991936262</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3979,13 +3979,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4030,13 +4030,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.7518808581286</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1054.855520006025</v>
+        <v>833.193892875099</v>
       </c>
       <c r="C2" t="n">
-        <v>1054.855520006025</v>
+        <v>833.193892875099</v>
       </c>
       <c r="D2" t="n">
-        <v>1054.855520006025</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="E2" t="n">
-        <v>788.477863438847</v>
+        <v>300.438579740743</v>
       </c>
       <c r="F2" t="n">
-        <v>522.1002068716689</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>255.7225503044908</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
         <v>21.0971104001205</v>
@@ -4330,22 +4330,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4366,16 +4366,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>833.193892875099</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>833.193892875099</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>833.193892875099</v>
       </c>
       <c r="Y2" t="n">
-        <v>1054.855520006025</v>
+        <v>833.193892875099</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>214.3969786487511</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C3" t="n">
-        <v>214.3969786487511</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
@@ -4412,49 +4412,49 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699346</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302313</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267552</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293602</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>909.46721075609</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>845.9002698637485</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>617.764423900562</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>382.6123156688192</v>
+        <v>819.7034117742821</v>
       </c>
       <c r="W3" t="n">
-        <v>382.6123156688192</v>
+        <v>565.4660550460806</v>
       </c>
       <c r="X3" t="n">
-        <v>382.6123156688192</v>
+        <v>357.6145548405477</v>
       </c>
       <c r="Y3" t="n">
-        <v>382.6123156688192</v>
+        <v>149.8542560755938</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>608.4303857829972</v>
+        <v>579.3784526566078</v>
       </c>
       <c r="C4" t="n">
-        <v>608.4303857829972</v>
+        <v>410.4422697287009</v>
       </c>
       <c r="D4" t="n">
-        <v>608.4303857829972</v>
+        <v>410.4422697287009</v>
       </c>
       <c r="E4" t="n">
-        <v>460.5172922006041</v>
+        <v>336.5564185430274</v>
       </c>
       <c r="F4" t="n">
-        <v>313.6273447026937</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
-        <v>313.6273447026937</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551011</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4518,22 +4518,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>1018.068401511254</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>1018.068401511254</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>1018.068401511254</v>
+        <v>800.1710318001379</v>
       </c>
       <c r="W4" t="n">
-        <v>1018.068401511254</v>
+        <v>800.1710318001379</v>
       </c>
       <c r="X4" t="n">
-        <v>790.0788506132369</v>
+        <v>800.1710318001379</v>
       </c>
       <c r="Y4" t="n">
-        <v>790.0788506132369</v>
+        <v>579.3784526566078</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>553.8524235344764</v>
+        <v>307.6661507067968</v>
       </c>
       <c r="C5" t="n">
-        <v>553.8524235344764</v>
+        <v>307.6661507067968</v>
       </c>
       <c r="D5" t="n">
-        <v>553.8524235344764</v>
+        <v>307.6661507067968</v>
       </c>
       <c r="E5" t="n">
-        <v>553.8524235344764</v>
+        <v>307.6661507067968</v>
       </c>
       <c r="F5" t="n">
-        <v>287.4747669672984</v>
+        <v>41.28849413961882</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991316</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946889</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="U5" t="n">
-        <v>900.5447187946889</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="V5" t="n">
-        <v>900.5447187946889</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="W5" t="n">
-        <v>820.2300801016544</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="X5" t="n">
-        <v>820.2300801016544</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="Y5" t="n">
-        <v>820.2300801016544</v>
+        <v>574.0438072739748</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>474.1185955443175</v>
+        <v>650.2861428725084</v>
       </c>
       <c r="C6" t="n">
-        <v>474.1185955443175</v>
+        <v>475.8331135913814</v>
       </c>
       <c r="D6" t="n">
-        <v>325.1841858830662</v>
+        <v>326.8987039301302</v>
       </c>
       <c r="E6" t="n">
-        <v>165.9467308776107</v>
+        <v>268.1158302633464</v>
       </c>
       <c r="F6" t="n">
-        <v>165.9467308776107</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776107</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004799</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699341</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302309</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4670,28 +4670,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166544</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>691.074259448092</v>
+        <v>858.0464416374624</v>
       </c>
       <c r="U6" t="n">
-        <v>691.074259448092</v>
+        <v>858.0464416374624</v>
       </c>
       <c r="V6" t="n">
-        <v>642.3339325643856</v>
+        <v>858.0464416374624</v>
       </c>
       <c r="W6" t="n">
-        <v>642.3339325643856</v>
+        <v>858.0464416374624</v>
       </c>
       <c r="X6" t="n">
-        <v>642.3339325643856</v>
+        <v>858.0464416374624</v>
       </c>
       <c r="Y6" t="n">
-        <v>642.3339325643856</v>
+        <v>650.2861428725084</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36.32155393434482</v>
+        <v>773.5618350567178</v>
       </c>
       <c r="C7" t="n">
-        <v>36.32155393434482</v>
+        <v>604.6256521288109</v>
       </c>
       <c r="D7" t="n">
-        <v>36.32155393434482</v>
+        <v>454.5090127164751</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434482</v>
+        <v>306.595919134082</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434482</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434482</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434482</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="I7" t="n">
         <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287944</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551007</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227044</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4749,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>659.6853352735295</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>405.0008470676427</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>138.6231905004647</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>36.32155393434482</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y7" t="n">
-        <v>36.32155393434482</v>
+        <v>955.2102998869575</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1731.301370157483</v>
+        <v>734.81220443713</v>
       </c>
       <c r="C8" t="n">
-        <v>1688.387721345801</v>
+        <v>734.81220443713</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.122022739051</v>
+        <v>734.81220443713</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3337701408066</v>
+        <v>734.81220443713</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3478653511991</v>
+        <v>727.8667036879266</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6416433428662</v>
+        <v>421.715859727008</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428662</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467166</v>
+        <v>187.3702251467171</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607415</v>
+        <v>442.1757437607423</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045917</v>
+        <v>795.1862829045926</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995226</v>
+        <v>1219.647962995227</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209583</v>
+        <v>1655.591685209584</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940594</v>
+        <v>2053.905718940596</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550196</v>
+        <v>2359.356530550198</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661162</v>
+        <v>2540.564622661164</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342781</v>
+        <v>2560.562760342784</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762134</v>
+        <v>2435.830015762137</v>
       </c>
       <c r="T8" t="n">
-        <v>2435.830015762134</v>
+        <v>2435.830015762137</v>
       </c>
       <c r="U8" t="n">
-        <v>2435.830015762134</v>
+        <v>2182.248837287706</v>
       </c>
       <c r="V8" t="n">
-        <v>2104.767128418563</v>
+        <v>1851.185949944136</v>
       </c>
       <c r="W8" t="n">
-        <v>2104.767128418563</v>
+        <v>1498.417294674022</v>
       </c>
       <c r="X8" t="n">
-        <v>1731.301370157483</v>
+        <v>1124.951536412942</v>
       </c>
       <c r="Y8" t="n">
-        <v>1731.301370157483</v>
+        <v>734.81220443713</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010759</v>
+        <v>929.5097208010786</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199489</v>
+        <v>755.0566915199516</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541851</v>
+        <v>606.1222818587004</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487295</v>
+        <v>446.8848268532449</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801299</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763181</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993887</v>
+        <v>69.87120530445436</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="J9" t="n">
-        <v>143.0521112394726</v>
+        <v>238.3188829507236</v>
       </c>
       <c r="K9" t="n">
-        <v>589.4696922330245</v>
+        <v>684.7364639442757</v>
       </c>
       <c r="L9" t="n">
-        <v>884.0056756665056</v>
+        <v>979.2724473777571</v>
       </c>
       <c r="M9" t="n">
-        <v>1247.072144140807</v>
+        <v>1342.338915852059</v>
       </c>
       <c r="N9" t="n">
-        <v>1634.156546613375</v>
+        <v>1729.423318324628</v>
       </c>
       <c r="O9" t="n">
-        <v>1966.043356600764</v>
+        <v>2061.310128312017</v>
       </c>
       <c r="P9" t="n">
-        <v>2213.078715030389</v>
+        <v>2308.345486741642</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442624</v>
+        <v>2560.562760342784</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342781</v>
+        <v>2560.562760342784</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251697</v>
+        <v>2424.826280251699</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685345</v>
+        <v>2230.816477685348</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751575</v>
+        <v>2002.726321751578</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519832</v>
+        <v>1767.574213519835</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791631</v>
+        <v>1513.336856791633</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586098</v>
+        <v>1305.485356586101</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821144</v>
+        <v>1097.725057821147</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>275.3062199882301</v>
+        <v>120.9495093560675</v>
       </c>
       <c r="C10" t="n">
-        <v>275.3062199882301</v>
+        <v>120.9495093560675</v>
       </c>
       <c r="D10" t="n">
-        <v>275.3062199882301</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="E10" t="n">
-        <v>275.3062199882301</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="F10" t="n">
-        <v>128.4162724903198</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685568</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380138</v>
+        <v>76.63468308380152</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676565</v>
+        <v>248.2500215676569</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368916</v>
+        <v>523.3850043368921</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904029</v>
+        <v>823.8653899904036</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101612</v>
+        <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.58202793109</v>
+        <v>1382.582027931091</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616499</v>
+        <v>1581.4903876165</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.156055412619</v>
+        <v>1533.156055412621</v>
       </c>
       <c r="S10" t="n">
-        <v>1336.515802634453</v>
+        <v>1336.515802634455</v>
       </c>
       <c r="T10" t="n">
-        <v>1336.515802634453</v>
+        <v>1113.53450110886</v>
       </c>
       <c r="U10" t="n">
-        <v>1047.397429129095</v>
+        <v>824.4161276035018</v>
       </c>
       <c r="V10" t="n">
-        <v>792.7129409232081</v>
+        <v>569.7316393976149</v>
       </c>
       <c r="W10" t="n">
-        <v>503.2957708862475</v>
+        <v>569.7316393976149</v>
       </c>
       <c r="X10" t="n">
-        <v>275.3062199882301</v>
+        <v>341.7420884995976</v>
       </c>
       <c r="Y10" t="n">
-        <v>275.3062199882301</v>
+        <v>120.9495093560675</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,19 +5029,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5278,19 +5278,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5311,13 +5311,13 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>810.0653816078141</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>641.1291986799072</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>491.0125592675714</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V19" t="n">
-        <v>1440.495976479601</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1440.495976479601</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>1212.506425581584</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>991.7138464380538</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>1089.575996120534</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>920.6398131926276</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>770.5231737802918</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>622.6100801978987</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>475.7201326999883</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>2009.423761029278</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1720.006590992318</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1492.0170400943</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1271.22446095077</v>
       </c>
     </row>
     <row r="23">
@@ -5971,16 +5971,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5989,19 +5989,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>800.5007694647277</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>631.5645865368208</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>481.447947124485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>333.5348535420919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>186.6449060441816</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.348534373476</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1430.931364336515</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1202.941813438498</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1492342949674</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6226,19 +6226,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6366,16 +6366,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>878.3568999154079</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>709.4207169875011</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408769</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408769</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578599</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>2091.550948547922</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.866460342035</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>1547.449290305074</v>
+        <v>1327.139029956955</v>
       </c>
       <c r="X31" t="n">
-        <v>1319.459739407057</v>
+        <v>1099.149479058938</v>
       </c>
       <c r="Y31" t="n">
-        <v>1098.667160263527</v>
+        <v>878.3568999154079</v>
       </c>
     </row>
     <row r="32">
@@ -6676,61 +6676,61 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3556038098237</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4194208819168</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D37" t="n">
-        <v>664.3027814695811</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>209.2531439449482</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>986.1256051221279</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
         <v>402.7245934908939</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1616.556199993915</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1388.566649095898</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1167.774069952368</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F41" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168638</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7438,25 +7438,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="42">
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2757.723669558404</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>2588.787486630497</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>2588.787486630497</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>2588.787486630497</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>2441.897539132587</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>2441.897539132587</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866298</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866298</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296621</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.255922673038</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3677.571434467151</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3388.154264430191</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3160.164713532174</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>2939.372134388644</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7630,7 +7630,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7736,16 +7736,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400799</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814783042</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038428</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797829</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910818</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570826</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279811</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885337</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580269</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832671</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487576</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510517</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854715</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648828</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611867</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138497</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703196</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127264</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>97.32166909127244</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446527</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069042</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127244</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>29.86197300581212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>138.3837121690878</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.98618304348506</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012638</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>84.77391660561949</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>145.139866510289</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23901,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23940,19 +23940,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>180.5336875992868</v>
       </c>
       <c r="V19" t="n">
-        <v>6.726664722474283</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>9.00025250156196</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>154.8900140445868</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>46.45968844823102</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>71.67319509805422</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>115.3527467088734</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>32.89260457060013</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>26.01259675821728</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>30.15030327141901</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
-        <v>37.12601365259772</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402404992</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>836474.4241574412</v>
+        <v>836474.4241574411</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>836474.4241574412</v>
+        <v>836474.4241574411</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>836474.4241574412</v>
+        <v>836474.4241574414</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>836474.4241574412</v>
+        <v>836474.4241574414</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>836474.4241574412</v>
+        <v>836474.4241574411</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>836474.4241574414</v>
+        <v>836474.4241574417</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>836474.4241574414</v>
+        <v>836474.4241574412</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>836474.4241574412</v>
+        <v>836474.4241574411</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>836474.4241574414</v>
+        <v>836474.4241574411</v>
       </c>
     </row>
     <row r="16">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516045</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752548</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="N2" t="n">
         <v>585181.2847752543</v>
@@ -26355,7 +26355,7 @@
         <v>585181.2847752544</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752541</v>
+        <v>585181.2847752545</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580783</v>
+        <v>390680.0076580792</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606938</v>
+        <v>507909.2320606929</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.537372332768358e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911401</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.027013448677744e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.2377910175</v>
+        <v>95270.23779101763</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954692</v>
+        <v>132717.975695469</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.614506921984933e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>249437.9663307044</v>
       </c>
       <c r="D4" t="n">
-        <v>138058.0537608933</v>
+        <v>138058.0537608931</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768796</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768816</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768936</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.14432176895</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
@@ -26444,10 +26444,10 @@
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321769103</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768939</v>
       </c>
       <c r="M4" t="n">
         <v>9947.144321768897</v>
@@ -26456,10 +26456,10 @@
         <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321769032</v>
+        <v>9947.144321769021</v>
       </c>
       <c r="P4" t="n">
-        <v>9947.144321769032</v>
+        <v>9947.144321768897</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567893</v>
+        <v>92902.86757567899</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-397318.4669745594</v>
+        <v>-397318.4669745591</v>
       </c>
       <c r="C6" t="n">
-        <v>282769.5136166342</v>
+        <v>282769.5136166345</v>
       </c>
       <c r="D6" t="n">
-        <v>-26385.64584304522</v>
+        <v>-26385.64584304586</v>
       </c>
       <c r="E6" t="n">
-        <v>-33797.62143111524</v>
+        <v>-34145.00068547125</v>
       </c>
       <c r="F6" t="n">
-        <v>474111.6106295786</v>
+        <v>473764.2313752215</v>
       </c>
       <c r="G6" t="n">
-        <v>474111.6106295788</v>
+        <v>473764.2313752211</v>
       </c>
       <c r="H6" t="n">
-        <v>474111.6106295785</v>
+        <v>473764.2313752215</v>
       </c>
       <c r="I6" t="n">
-        <v>474111.6106295786</v>
+        <v>473764.2313752216</v>
       </c>
       <c r="J6" t="n">
-        <v>405112.4562104645</v>
+        <v>404765.0769561075</v>
       </c>
       <c r="K6" t="n">
-        <v>474111.6106295785</v>
+        <v>473764.2313752212</v>
       </c>
       <c r="L6" t="n">
-        <v>378841.3728385608</v>
+        <v>378493.9935842038</v>
       </c>
       <c r="M6" t="n">
-        <v>341393.6349341092</v>
+        <v>341046.2556797523</v>
       </c>
       <c r="N6" t="n">
-        <v>474111.6106295783</v>
+        <v>473764.2313752213</v>
       </c>
       <c r="O6" t="n">
-        <v>474111.6106295782</v>
+        <v>473764.2313752213</v>
       </c>
       <c r="P6" t="n">
-        <v>474111.6106295779</v>
+        <v>473764.2313752216</v>
       </c>
     </row>
   </sheetData>
@@ -26700,22 +26700,22 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.28376681084718e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26724,10 +26724,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>9.619644559687951e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26743,7 +26743,7 @@
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627823</v>
+        <v>933.7024595627831</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856953</v>
+        <v>640.140690085696</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,10 +26804,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>9.619644559687951e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.28376681084718e-13</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.647445793304</v>
+        <v>319.6474457933048</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788914</v>
+        <v>434.2730407788906</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841891</v>
+        <v>376.4268100841898</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139531</v>
+        <v>532.5675980139522</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841891</v>
+        <v>376.4268100841896</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139531</v>
+        <v>532.5675980139524</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>9.619644559687951e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.28376681084718e-13</v>
       </c>
     </row>
     <row r="3">
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841891</v>
+        <v>376.4268100841898</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139531</v>
+        <v>532.5675980139522</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707555</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
         <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442037</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>81.91444712394139</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27438,7 +27438,7 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>108.3072476105184</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>39.06360943114878</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27478,7 +27478,7 @@
         <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>6.127814899300773</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>73.28696997275239</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>186.7950985697428</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442039</v>
+        <v>392.8447047436067</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>269.7294764113088</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27694,19 +27694,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>99.45003552528497</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27715,7 +27715,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27754,7 +27754,7 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>184.5476635345559</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27763,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27794,7 +27794,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27830,19 +27830,19 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117134</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>124.4310351885785</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>119.9358854342182</v>
       </c>
     </row>
     <row r="8">
@@ -27855,22 +27855,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>322.7883794474425</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>108.4598242669401</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27937,7 +27937,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.776449164532551</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.776449164529659</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28016,16 +28016,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>79.57460141049268</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>89.8742865010767</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
         <v>147.2573199590395</v>
@@ -28064,7 +28064,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28073,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-4.565289486407452e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,22 +28140,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.369115722532551e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.369115722532551e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-6.369115722532551e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-6.369115722532551e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.369115722532551e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-6.369115722532551e-14</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28295,7 +28295,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-4.692976768219406e-12</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28329,16 +28329,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-6.369115722532551e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-6.369115722532551e-14</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-6.369115722532551e-14</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28380,19 +28380,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-6.369115722532551e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-6.369115722532551e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-6.369115722532551e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-1.336234077466e-12</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-6.369115722532551e-14</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28632,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>8.119788366582661e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28958,7 +28958,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>3.796617681797508e-12</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -29669,28 +29669,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1.28376681084718e-13</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1.28376681084718e-13</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.28376681084718e-13</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1.28376681084718e-13</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1.319712281550901e-11</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1.28376681084718e-13</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.28376681084718e-13</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.28376681084718e-13</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -29717,28 +29717,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.28376681084718e-13</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1.28376681084718e-13</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.28376681084718e-13</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.28376681084718e-13</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1.28376681084718e-13</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>1.28376681084718e-13</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1.28376681084718e-13</v>
       </c>
     </row>
     <row r="32">
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>9.619644559687951e-14</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>2.595370434219327e-12</v>
       </c>
       <c r="T41" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30644,7 +30644,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>5.818010046795914e-12</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30699,10 +30699,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -30756,13 +30756,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -30878,7 +30878,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>8.560274374868832e-12</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885554</v>
+        <v>3.753577726885557</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546669</v>
+        <v>38.44132789546673</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157555</v>
+        <v>144.7098053157556</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972531</v>
+        <v>318.5802175972534</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763187</v>
+        <v>477.4691627763191</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354926</v>
+        <v>592.3427171354931</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359935</v>
+        <v>659.0954050359941</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525072</v>
+        <v>669.7602577525078</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307889</v>
+        <v>632.4356192307895</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983017</v>
+        <v>539.7691690983022</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542127</v>
+        <v>405.344166754213</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864749</v>
+        <v>235.7856768864751</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140465</v>
+        <v>85.53465245140472</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944152</v>
+        <v>16.43128649944154</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508443</v>
+        <v>0.3002862181508446</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436928</v>
+        <v>2.00834113943693</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035139</v>
+        <v>19.3963473203514</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026266</v>
+        <v>69.14683309026272</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079424</v>
+        <v>189.7441951079426</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502166</v>
+        <v>324.3030514502169</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571278</v>
+        <v>436.0654741571282</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617163</v>
+        <v>508.8678404617168</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152211</v>
+        <v>522.3360580152215</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519081</v>
+        <v>477.8354464519085</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947587</v>
+        <v>383.505072494759</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.36298474637</v>
+        <v>256.3629847463702</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204788</v>
+        <v>124.6933209204789</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366397</v>
+        <v>37.304055813664</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133931</v>
+        <v>8.095024154133938</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419032</v>
+        <v>0.1321277065419033</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752558</v>
+        <v>1.683725746752559</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840003</v>
+        <v>14.96985254840004</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415877</v>
+        <v>50.63422518415881</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954059</v>
+        <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772517</v>
+        <v>195.6183185772519</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490122</v>
+        <v>250.3240987490124</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023123</v>
+        <v>263.9316641023125</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462348</v>
+        <v>257.6559590462351</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046253</v>
+        <v>237.9869810046255</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708729</v>
+        <v>203.6389757708731</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939801</v>
+        <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307409</v>
+        <v>75.70643221307417</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658775</v>
+        <v>29.34274778658778</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942746</v>
+        <v>7.194100917942753</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650327</v>
+        <v>0.09183958618650336</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,13 +31843,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>381.6404378718165</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
@@ -31861,7 +31861,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32092,10 +32092,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,16 +32338,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>370.9642309107746</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>456.5952253539618</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,19 +33271,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,10 +33511,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,7 +33523,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>456.5952253539618</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34456,19 +34456,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>414.6448185524877</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089031</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659563</v>
@@ -34795,7 +34795,7 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250135</v>
       </c>
       <c r="Q3" t="n">
         <v>28.61687799649641</v>
@@ -34859,13 +34859,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966408</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N4" t="n">
         <v>213.581156752698</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127218</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>75.4384048176305</v>
@@ -35032,7 +35032,7 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250135</v>
       </c>
       <c r="Q6" t="n">
         <v>28.61687799649641</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705668</v>
+        <v>137.5343130705671</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313381</v>
+        <v>257.3793117313386</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655054</v>
+        <v>356.5763021655059</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087208</v>
+        <v>428.7491718087214</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559163</v>
+        <v>440.3471941559168</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091022</v>
+        <v>402.3374078091027</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430322</v>
+        <v>308.5361733430327</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797632</v>
+        <v>183.0384768797635</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234278</v>
+        <v>20.20013907234298</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>92.76854144708786</v>
+        <v>188.9976037816847</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884362</v>
+        <v>450.9268494884365</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772536</v>
+        <v>297.511094377254</v>
       </c>
       <c r="M9" t="n">
-        <v>366.733806539698</v>
+        <v>366.7338065396984</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318878</v>
+        <v>390.9943459318882</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074636</v>
+        <v>335.239202007464</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804284</v>
+        <v>249.5306650804288</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961976</v>
+        <v>254.7649228294365</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783566</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873308</v>
+        <v>25.68023017873318</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513688</v>
+        <v>173.348826751369</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093284</v>
+        <v>277.9141240093285</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641529</v>
+        <v>303.5155410641531</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254635</v>
+        <v>301.7881314254637</v>
       </c>
       <c r="O10" t="n">
-        <v>262.572108918665</v>
+        <v>262.5721089186652</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357664</v>
+        <v>200.9175350357666</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228576</v>
+        <v>54.82702814228587</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>243.7989988974575</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35740,10 +35740,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>228.3679864663302</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>322.6208179396315</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36843,7 +36843,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,19 +36919,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>322.6208179396315</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096408</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
         <v>394.3420143191314</v>
@@ -38104,19 +38104,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>272.5107846304694</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326296191</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2130876.314896205</v>
+        <v>2132636.84519899</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283196</v>
       </c>
     </row>
     <row r="9">
@@ -664,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>32.55518202532696</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>219.4450108596165</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.4695742187186</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>125.2783963262414</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>73.14699267381678</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>2.214688090590209</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015062</v>
+        <v>219.4450108596164</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
-        <v>19.98946990210334</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -983,7 +983,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>58.19504493011597</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>10.18456372565635</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>48.2027943444968</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>98.64876791787661</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>303.0893355213094</v>
+        <v>11.54915978824949</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>113.7020726073104</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465031</v>
+        <v>65.76608425465008</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348406</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614505</v>
+        <v>92.83909691614502</v>
       </c>
       <c r="I9" t="n">
-        <v>18.4733505966227</v>
+        <v>20.24979976115225</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>132.6026661256514</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>69.04087160771968</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>230.1776995037415</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634789</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1378,16 +1378,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>132.6315337216688</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>115.7063133373723</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,10 +1618,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1663,16 +1663,16 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174144</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560528</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>105.6507867899574</v>
+        <v>176.1811323375794</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819335</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>53.30076123484837</v>
       </c>
       <c r="G22" t="n">
-        <v>156.5238857907069</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206841</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881266</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>119.6760079449695</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986277</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
-        <v>76.94227792015799</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229181</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701358</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>172.0260335000785</v>
+        <v>220.6346102953135</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187878</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>99.72336853883914</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>114.2821160880066</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695271</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>80.90831282609496</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>833.193892875099</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="C2" t="n">
-        <v>833.193892875099</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="D2" t="n">
-        <v>566.8162363079209</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="E2" t="n">
-        <v>300.438579740743</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>53.98113264792551</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
         <v>888.5149683358413</v>
@@ -4360,22 +4360,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="V2" t="n">
-        <v>833.193892875099</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="W2" t="n">
-        <v>833.193892875099</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="X2" t="n">
-        <v>833.193892875099</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="Y2" t="n">
-        <v>833.193892875099</v>
+        <v>586.7364457822814</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.0971104001205</v>
+        <v>344.4845493424988</v>
       </c>
       <c r="C3" t="n">
-        <v>21.0971104001205</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="D3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>503.6022960313624</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>713.6562631339674</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>883.5948104606972</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4436,25 +4436,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>928.3116853330534</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>928.3116853330534</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>928.3116853330534</v>
       </c>
       <c r="V3" t="n">
-        <v>819.7034117742821</v>
+        <v>928.3116853330534</v>
       </c>
       <c r="W3" t="n">
-        <v>565.4660550460806</v>
+        <v>928.3116853330534</v>
       </c>
       <c r="X3" t="n">
-        <v>357.6145548405477</v>
+        <v>720.4601851275206</v>
       </c>
       <c r="Y3" t="n">
-        <v>149.8542560755938</v>
+        <v>512.6998863625668</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>579.3784526566078</v>
+        <v>650.177417354891</v>
       </c>
       <c r="C4" t="n">
-        <v>410.4422697287009</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="D4" t="n">
-        <v>410.4422697287009</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="E4" t="n">
-        <v>336.5564185430274</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F4" t="n">
-        <v>189.666471045117</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
         <v>527.7368878375336</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>1052.618461328661</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>1052.618461328661</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>1052.618461328661</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>1052.618461328661</v>
       </c>
       <c r="V4" t="n">
-        <v>800.1710318001379</v>
+        <v>1052.618461328661</v>
       </c>
       <c r="W4" t="n">
-        <v>800.1710318001379</v>
+        <v>1052.618461328661</v>
       </c>
       <c r="X4" t="n">
-        <v>800.1710318001379</v>
+        <v>1052.618461328661</v>
       </c>
       <c r="Y4" t="n">
-        <v>579.3784526566078</v>
+        <v>831.8258821851307</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.6661507067968</v>
+        <v>833.1938928750989</v>
       </c>
       <c r="C5" t="n">
-        <v>307.6661507067968</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="D5" t="n">
-        <v>307.6661507067968</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="E5" t="n">
-        <v>307.6661507067968</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="F5" t="n">
-        <v>41.28849413961882</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991315</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358411</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4597,22 +4597,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>840.4214638411528</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>840.4214638411528</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>840.4214638411528</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>840.4214638411528</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>840.4214638411528</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>574.0438072739748</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2861428725084</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8331135913814</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>326.8987039301302</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>268.1158302633464</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4670,28 +4670,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>858.0464416374624</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>858.0464416374624</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>858.0464416374624</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>858.0464416374624</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>858.0464416374624</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>650.2861428725084</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>773.5618350567178</v>
+        <v>85.01124519141231</v>
       </c>
       <c r="C7" t="n">
-        <v>604.6256521288109</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="D7" t="n">
-        <v>454.5090127164751</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="E7" t="n">
-        <v>306.595919134082</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="F7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4761,16 +4761,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>800.1710318001377</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.855520006025</v>
+        <v>533.7933752329598</v>
       </c>
       <c r="X7" t="n">
-        <v>1054.855520006025</v>
+        <v>305.8038243349424</v>
       </c>
       <c r="Y7" t="n">
-        <v>955.2102998869575</v>
+        <v>85.01124519141231</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>734.81220443713</v>
+        <v>1040.932197089869</v>
       </c>
       <c r="C8" t="n">
-        <v>734.81220443713</v>
+        <v>1040.932197089869</v>
       </c>
       <c r="D8" t="n">
-        <v>734.81220443713</v>
+        <v>1040.932197089869</v>
       </c>
       <c r="E8" t="n">
-        <v>734.81220443713</v>
+        <v>655.143944491625</v>
       </c>
       <c r="F8" t="n">
-        <v>727.8667036879266</v>
+        <v>244.1580397020174</v>
       </c>
       <c r="G8" t="n">
-        <v>421.715859727008</v>
+        <v>232.4922217340887</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428661</v>
+        <v>117.641643342866</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467171</v>
+        <v>187.3702251467177</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607423</v>
+        <v>442.1757437607436</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045926</v>
+        <v>795.1862829045958</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995227</v>
+        <v>1219.647962995231</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209584</v>
+        <v>1655.59168520959</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940596</v>
+        <v>2053.905718940602</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550198</v>
+        <v>2359.356530550205</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661164</v>
+        <v>2540.564622661171</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342784</v>
+        <v>2560.562760342791</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762137</v>
+        <v>2560.562760342791</v>
       </c>
       <c r="T8" t="n">
-        <v>2435.830015762137</v>
+        <v>2351.810676439064</v>
       </c>
       <c r="U8" t="n">
-        <v>2182.248837287706</v>
+        <v>2098.229497964634</v>
       </c>
       <c r="V8" t="n">
-        <v>1851.185949944136</v>
+        <v>1767.166610621063</v>
       </c>
       <c r="W8" t="n">
-        <v>1498.417294674022</v>
+        <v>1414.397955350949</v>
       </c>
       <c r="X8" t="n">
-        <v>1124.951536412942</v>
+        <v>1040.932197089869</v>
       </c>
       <c r="Y8" t="n">
-        <v>734.81220443713</v>
+        <v>1040.932197089869</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010786</v>
+        <v>931.3041138965631</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199516</v>
+        <v>756.8510846154361</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818587004</v>
+        <v>607.9166749541848</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532449</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801299</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763181</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>69.87120530445436</v>
+        <v>71.6655983999389</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507236</v>
+        <v>113.4887579637193</v>
       </c>
       <c r="K9" t="n">
-        <v>684.7364639442757</v>
+        <v>298.085754314819</v>
       </c>
       <c r="L9" t="n">
-        <v>979.2724473777571</v>
+        <v>592.6217377483011</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.338915852059</v>
+        <v>1226.361020933142</v>
       </c>
       <c r="N9" t="n">
-        <v>1729.423318324628</v>
+        <v>1842.133061471873</v>
       </c>
       <c r="O9" t="n">
-        <v>2061.310128312017</v>
+        <v>2174.019871459263</v>
       </c>
       <c r="P9" t="n">
-        <v>2308.345486741642</v>
+        <v>2421.055229888888</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342784</v>
+        <v>2536.272628442634</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342784</v>
+        <v>2560.562760342791</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251699</v>
+        <v>2426.620673347184</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685348</v>
+        <v>2232.610870780833</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751578</v>
+        <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519835</v>
+        <v>1769.368606615319</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791633</v>
+        <v>1515.131249887118</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586101</v>
+        <v>1307.279749681585</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821147</v>
+        <v>1099.519450916631</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.9495093560675</v>
+        <v>665.0671186274019</v>
       </c>
       <c r="C10" t="n">
-        <v>120.9495093560675</v>
+        <v>496.130935699495</v>
       </c>
       <c r="D10" t="n">
-        <v>51.21125520685568</v>
+        <v>346.0142962871593</v>
       </c>
       <c r="E10" t="n">
-        <v>51.21125520685568</v>
+        <v>198.1012027047662</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380152</v>
+        <v>76.63468308380186</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676569</v>
+        <v>248.2500215676575</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368921</v>
+        <v>523.3850043368932</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904036</v>
+        <v>823.8653899904052</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101613</v>
+        <v>1122.635640101615</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931091</v>
+        <v>1382.582027931094</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.4903876165</v>
+        <v>1581.490387616503</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477363</v>
+        <v>1635.769145477366</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.156055412621</v>
+        <v>1635.769145477366</v>
       </c>
       <c r="S10" t="n">
-        <v>1336.515802634455</v>
+        <v>1635.769145477366</v>
       </c>
       <c r="T10" t="n">
-        <v>1113.53450110886</v>
+        <v>1635.769145477366</v>
       </c>
       <c r="U10" t="n">
-        <v>824.4161276035018</v>
+        <v>1635.769145477366</v>
       </c>
       <c r="V10" t="n">
-        <v>569.7316393976149</v>
+        <v>1403.26641870591</v>
       </c>
       <c r="W10" t="n">
-        <v>569.7316393976149</v>
+        <v>1113.849248668949</v>
       </c>
       <c r="X10" t="n">
-        <v>341.7420884995976</v>
+        <v>885.859697770932</v>
       </c>
       <c r="Y10" t="n">
-        <v>120.9495093560675</v>
+        <v>665.0671186274019</v>
       </c>
     </row>
     <row r="11">
@@ -5020,40 +5020,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,31 +5062,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>484.8243144841095</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5229,22 +5229,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2312.991837396757</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2023.916610740955</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1769.232122535068</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1479.814952498107</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1251.82540160009</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>1031.03282245656</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5257,16 +5257,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5278,19 +5278,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5311,16 +5311,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,22 +5360,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5478,10 +5478,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5509,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>2273.199413378161</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G20" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1089.575996120534</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C22" t="n">
-        <v>920.6398131926276</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D22" t="n">
-        <v>770.5231737802918</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E22" t="n">
-        <v>622.6100801978987</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="F22" t="n">
-        <v>475.7201326999883</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>2264.108249235165</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>2009.423761029278</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1720.006590992318</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>1492.0170400943</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y22" t="n">
-        <v>1271.22446095077</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="23">
@@ -5971,37 +5971,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6226,10 +6226,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6545,22 +6545,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>878.3568999154079</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>709.4207169875011</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408769</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408769</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429798</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578599</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956955</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058938</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154079</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6694,58 +6694,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2273.199413378161</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168622</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6964,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703109</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C37" t="n">
-        <v>526.5658826424041</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D37" t="n">
-        <v>376.4492432300683</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E37" t="n">
-        <v>376.4492432300683</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>376.4492432300683</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>209.2531439449482</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004716</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406472</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168638</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7438,25 +7438,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7560,7 +7560,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7645,22 +7645,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7833,19 +7833,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>2191.112710026075</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783227</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X46" t="n">
         <v>1419.02150088521</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8066,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>71.18793141915887</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>97.32166909127244</v>
+        <v>26.13373767211351</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775129</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127244</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.4068835459985</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>230.9976142082434</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.3837121690878</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348506</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.70530256582424e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012638</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>84.77391660561949</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>180.5336875992868</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24138,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>92.12028678808286</v>
       </c>
       <c r="G22" t="n">
-        <v>9.00025250156196</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>45.8481303472993</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.151079231931362e-12</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
-        <v>71.67319509805422</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>114.1584408891656</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.804778548830654e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>67.52345255978869</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>26.01259675821728</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26073,22 +26073,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>205.614685510496</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>836474.4241574411</v>
+        <v>836474.4241574412</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>836474.4241574414</v>
+        <v>836474.4241574412</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>836474.4241574414</v>
+        <v>836474.4241574412</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>836474.4241574411</v>
+        <v>836474.424157441</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>836474.4241574417</v>
+        <v>836474.4241574412</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>836474.4241574414</v>
+        <v>836474.4241574411</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>836474.4241574412</v>
+        <v>836474.4241574411</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>836474.4241574411</v>
+        <v>836474.4241574412</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>836474.4241574414</v>
+        <v>836474.4241574412</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516046</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="F2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="G2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="H2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="G2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="H2" t="n">
-        <v>585181.2847752544</v>
-      </c>
       <c r="I2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="K2" t="n">
         <v>585181.2847752544</v>
@@ -26352,10 +26352,10 @@
         <v>585181.2847752543</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580792</v>
+        <v>390680.0076580811</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606929</v>
+        <v>507909.2320606912</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.537372332768358e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911401</v>
+        <v>68999.15441911404</v>
       </c>
       <c r="K3" t="n">
-        <v>1.027013448677744e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101763</v>
+        <v>95270.23779101815</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.975695469</v>
+        <v>132717.9756954685</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249437.9663307044</v>
+        <v>249437.9663307045</v>
       </c>
       <c r="C4" t="n">
-        <v>249437.9663307044</v>
+        <v>249437.9663307045</v>
       </c>
       <c r="D4" t="n">
-        <v>138058.0537608931</v>
+        <v>138058.0537608925</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768796</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768816</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768936</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.14432176895</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768847</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321769103</v>
+        <v>9947.144321768847</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768939</v>
+        <v>9947.144321768861</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768847</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321769021</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567899</v>
+        <v>92902.86757567912</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26527,43 +26527,43 @@
         <v>282769.5136166345</v>
       </c>
       <c r="D6" t="n">
-        <v>-26385.64584304586</v>
+        <v>-26385.64584304727</v>
       </c>
       <c r="E6" t="n">
-        <v>-34145.00068547125</v>
+        <v>-33832.35935654849</v>
       </c>
       <c r="F6" t="n">
-        <v>473764.2313752215</v>
+        <v>474076.8727041425</v>
       </c>
       <c r="G6" t="n">
-        <v>473764.2313752211</v>
+        <v>474076.8727041425</v>
       </c>
       <c r="H6" t="n">
-        <v>473764.2313752215</v>
+        <v>474076.8727041426</v>
       </c>
       <c r="I6" t="n">
-        <v>473764.2313752216</v>
+        <v>474076.8727041428</v>
       </c>
       <c r="J6" t="n">
-        <v>404765.0769561075</v>
+        <v>405077.7182850285</v>
       </c>
       <c r="K6" t="n">
-        <v>473764.2313752212</v>
+        <v>474076.8727041427</v>
       </c>
       <c r="L6" t="n">
-        <v>378493.9935842038</v>
+        <v>378806.6349131246</v>
       </c>
       <c r="M6" t="n">
-        <v>341046.2556797523</v>
+        <v>341358.897008674</v>
       </c>
       <c r="N6" t="n">
-        <v>473764.2313752213</v>
+        <v>474076.8727041426</v>
       </c>
       <c r="O6" t="n">
-        <v>473764.2313752213</v>
+        <v>474076.8727041428</v>
       </c>
       <c r="P6" t="n">
-        <v>473764.2313752216</v>
+        <v>474076.8727041426</v>
       </c>
     </row>
   </sheetData>
@@ -26700,22 +26700,22 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.28376681084718e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26724,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.619644559687951e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627831</v>
+        <v>933.7024595627846</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.140690085696</v>
+        <v>640.1406900856978</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,10 +26804,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>9.619644559687951e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>1.28376681084718e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933048</v>
+        <v>319.6474457933064</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788906</v>
+        <v>434.2730407788891</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841898</v>
+        <v>376.4268100841916</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139522</v>
+        <v>532.5675980139506</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841896</v>
+        <v>376.4268100841916</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139524</v>
+        <v>532.5675980139506</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>9.619644559687951e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.28376681084718e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841898</v>
+        <v>376.4268100841916</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139522</v>
+        <v>532.5675980139506</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,16 +27384,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917676</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>380.278992620383</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27432,13 +27432,13 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>108.3072476105184</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.06360943114878</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27475,10 +27475,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>21.87153908595738</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -27517,10 +27517,10 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>73.28696997275239</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27560,7 +27560,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>125.2899147930737</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -27596,7 +27596,7 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>163.2888308038642</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402052</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G5" t="n">
-        <v>392.8447047436067</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27669,7 +27669,7 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27703,7 +27703,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>99.45003552528497</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27712,10 +27712,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>195.5884214778211</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>119.044026754131</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27794,7 +27794,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,16 +27833,16 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>119.9358854342182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,16 +27861,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>108.4598242669401</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>187.33140161299</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348405</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.776449164529659</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.776449164522347</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>79.57460141049268</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3072536117062</v>
@@ -28031,7 +28031,7 @@
         <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640952</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>21.95994382008649</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-4.565289486407452e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,22 +28140,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-6.369115722532551e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-6.369115722532551e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-6.369115722532551e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-6.369115722532551e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-6.369115722532551e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-6.369115722532551e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28295,7 +28295,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-4.692976768219406e-12</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28329,16 +28329,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-6.369115722532551e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-6.369115722532551e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-6.369115722532551e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28380,19 +28380,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-6.369115722532551e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-6.369115722532551e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-6.369115722532551e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-1.336234077466e-12</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-6.369115722532551e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28632,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.119788366582661e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28958,7 +28958,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.796617681797508e-12</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -29280,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-7.330765545821323e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>-7.330765545821323e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29669,28 +29669,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.28376681084718e-13</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1.28376681084718e-13</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.28376681084718e-13</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1.28376681084718e-13</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.319712281550901e-11</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.28376681084718e-13</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.28376681084718e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.28376681084718e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -29717,28 +29717,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>1.28376681084718e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>1.28376681084718e-13</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>1.28376681084718e-13</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>1.28376681084718e-13</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>1.28376681084718e-13</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>1.28376681084718e-13</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.28376681084718e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29808,7 +29808,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>-8.360392837795219e-13</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-1.133261760295336e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30477,7 +30477,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>9.619644559687951e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>2.595370434219327e-12</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885557</v>
+        <v>3.753577726885563</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546673</v>
+        <v>38.44132789546678</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157556</v>
+        <v>144.7098053157558</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972534</v>
+        <v>318.5802175972539</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763191</v>
+        <v>477.4691627763199</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354931</v>
+        <v>592.342717135494</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359941</v>
+        <v>659.0954050359952</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525078</v>
+        <v>669.7602577525089</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307895</v>
+        <v>632.4356192307905</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983022</v>
+        <v>539.769169098303</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.344166754213</v>
+        <v>405.3441667542137</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864751</v>
+        <v>235.7856768864755</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140472</v>
+        <v>85.53465245140487</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944154</v>
+        <v>16.43128649944156</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508446</v>
+        <v>0.300286218150845</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00834113943693</v>
+        <v>2.008341139436933</v>
       </c>
       <c r="H9" t="n">
-        <v>19.3963473203514</v>
+        <v>19.39634732035143</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026272</v>
+        <v>69.14683309026283</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079426</v>
+        <v>189.7441951079429</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502169</v>
+        <v>324.3030514502174</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571282</v>
+        <v>436.0654741571288</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617168</v>
+        <v>508.8678404617175</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152215</v>
+        <v>522.3360580152223</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519085</v>
+        <v>477.8354464519092</v>
       </c>
       <c r="P9" t="n">
-        <v>383.505072494759</v>
+        <v>383.5050724947596</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463702</v>
+        <v>256.3629847463706</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204789</v>
+        <v>124.6933209204791</v>
       </c>
       <c r="S9" t="n">
-        <v>37.304055813664</v>
+        <v>37.30405581366406</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133938</v>
+        <v>8.09502415413395</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419033</v>
+        <v>0.1321277065419035</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752559</v>
+        <v>1.683725746752562</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840004</v>
+        <v>14.96985254840006</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415881</v>
+        <v>50.63422518415889</v>
       </c>
       <c r="J10" t="n">
-        <v>119.039410295406</v>
+        <v>119.0394102954061</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772519</v>
+        <v>195.6183185772522</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490124</v>
+        <v>250.3240987490128</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023125</v>
+        <v>263.931664102313</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462351</v>
+        <v>257.6559590462355</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046255</v>
+        <v>237.9869810046259</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708731</v>
+        <v>203.6389757708735</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939803</v>
+        <v>140.9890713939805</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307417</v>
+        <v>75.70643221307428</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658778</v>
+        <v>29.34274778658783</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942753</v>
+        <v>7.194100917942764</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650336</v>
+        <v>0.09183958618650349</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,7 +31843,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>381.6404378718165</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31858,13 +31858,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32080,25 +32080,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>618.3341264639751</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33265,25 +33265,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>403.8524967138027</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="N3" t="n">
         <v>212.1757243460657</v>
@@ -34795,10 +34795,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>215.5616691250135</v>
+        <v>144.3737377058545</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34865,7 +34865,7 @@
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
         <v>213.581156752698</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496654</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>245.5483596572286</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35032,10 +35032,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250135</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705671</v>
+        <v>137.5343130705676</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313386</v>
+        <v>257.3793117313393</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655059</v>
+        <v>356.5763021655068</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087214</v>
+        <v>428.7491718087225</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559168</v>
+        <v>440.347194155918</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091027</v>
+        <v>402.3374078091038</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430327</v>
+        <v>308.5361733430335</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797635</v>
+        <v>183.0384768797642</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234298</v>
+        <v>20.20013907234335</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816847</v>
+        <v>62.90656844127619</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884365</v>
+        <v>186.4616124758584</v>
       </c>
       <c r="L9" t="n">
-        <v>297.511094377254</v>
+        <v>297.5110943772547</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396984</v>
+        <v>640.1406900856978</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318882</v>
+        <v>621.9919601401324</v>
       </c>
       <c r="O9" t="n">
-        <v>335.239202007464</v>
+        <v>335.2392020074648</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804288</v>
+        <v>249.5306650804294</v>
       </c>
       <c r="Q9" t="n">
-        <v>254.7649228294365</v>
+        <v>116.3812106603491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.53548676783596</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873318</v>
+        <v>25.68023017873337</v>
       </c>
       <c r="K10" t="n">
-        <v>173.348826751369</v>
+        <v>173.3488267513693</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093285</v>
+        <v>277.9141240093289</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641531</v>
+        <v>303.5155410641536</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254637</v>
+        <v>301.788131425464</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186652</v>
+        <v>262.5721089186655</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357666</v>
+        <v>200.9175350357669</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228587</v>
+        <v>54.8270281422861</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>243.7989988974575</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35506,13 +35506,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36843,7 +36843,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36913,25 +36913,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>272.5107846304694</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
